--- a/Dokumentation/Iterationsplan/Iterationsplan.xlsx
+++ b/Dokumentation/Iterationsplan/Iterationsplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="V14" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Iterationsplan Tim Emanuelsson (te222ds)</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Iterationsplan v16</t>
   </si>
   <si>
-    <t>Göra "färdigt" kraven så långt de går, handledamöte, göra en första app, testning via mobilen</t>
-  </si>
-  <si>
     <t>Handledamöte</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Testa genom mobilen</t>
   </si>
   <si>
-    <t>Krav "Färdiga", första handledamötet, skapat en simpel "Hello World" app och fått testningen på mobilen att funka</t>
-  </si>
-  <si>
     <t>Iterationsplan v17</t>
   </si>
   <si>
@@ -140,6 +134,15 @@
   </si>
   <si>
     <t>Mål för veckan</t>
+  </si>
+  <si>
+    <t>Göra "färdigt" kraven så långt de går, handledamöte, göra en första app, testning via mobilen, rita upp en skiss</t>
+  </si>
+  <si>
+    <t>Skiss</t>
+  </si>
+  <si>
+    <t>Krav "Färdiga", första handledamötet, skapat en simpel "Hello World" app och fått testningen på mobilen att funka och gjort en enkel skiss</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +584,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -704,7 +707,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -767,7 +770,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -884,7 +887,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -909,10 +912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +949,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -956,7 +959,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1040,60 +1043,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>11</v>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="E15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1146,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1139,7 +1156,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1149,7 +1166,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1179,7 +1196,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1193,10 +1210,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1204,10 +1221,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1215,10 +1232,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1226,10 +1243,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1253,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1283,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/Dokumentation/Iterationsplan/Iterationsplan.xlsx
+++ b/Dokumentation/Iterationsplan/Iterationsplan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Iterationsplan Tim Emanuelsson (te222ds)</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Krav "Färdiga", första handledamötet, skapat en simpel "Hello World" app och fått testningen på mobilen att funka och gjort en enkel skiss</t>
+  </si>
+  <si>
+    <t>Ej kunskaper</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Halv" vecka efter påsk och resa. Jobbat mest med gränssnitt denna veckan för att få klart de uppgifterna som ska lämnas in i den kursen. </t>
+  </si>
+  <si>
+    <t>Varit på föreläsning, handledning och byggt upp menyn.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1119,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1233,9 @@
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1235,10 +1253,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,10 +1267,13 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,10 +1283,16 @@
       <c r="D14">
         <v>14</v>
       </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="E15">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,14 +1322,27 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentation/Iterationsplan/Iterationsplan.xlsx
+++ b/Dokumentation/Iterationsplan/Iterationsplan.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="V14" sheetId="1" r:id="rId1"/>
     <sheet name="V15" sheetId="2" r:id="rId2"/>
     <sheet name="V16" sheetId="3" r:id="rId3"/>
     <sheet name="V17" sheetId="5" r:id="rId4"/>
+    <sheet name="V18" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>Iterationsplan Tim Emanuelsson (te222ds)</t>
   </si>
@@ -155,6 +156,21 @@
   </si>
   <si>
     <t>Varit på föreläsning, handledning och byggt upp menyn.</t>
+  </si>
+  <si>
+    <t>Iterationsplan v18</t>
+  </si>
+  <si>
+    <t>Få knapparna att funka, kunna få "fullscreen", kunna starta spelet och trycka på knapparna, handledamöte, gästföreläsning</t>
+  </si>
+  <si>
+    <t>Fixa "Fullscreen"</t>
+  </si>
+  <si>
+    <t>Kunna starta spelet och klicka</t>
+  </si>
+  <si>
+    <t>Veckan har gått bra och tycker själv att jag kommen bra bit påväg! Gästföreläsningen var väldigt bra och inspererande.</t>
   </si>
 </sst>
 </file>
@@ -239,7 +255,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,6 +274,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1136,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,4 +1364,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>